--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,32 +140,418 @@
     <t>0x26</t>
   </si>
   <si>
+    <t>0x28</t>
+  </si>
+  <si>
+    <t>0x29</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x33</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t>磁棒开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_A开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_A关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_B开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_B关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留开关开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留开关关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动量轮A开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动量轮A关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动量轮B开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动量轮B关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳翻板开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳翻板关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1开机</t>
+  </si>
+  <si>
+    <t>S1关机</t>
+  </si>
+  <si>
+    <t>S2开机</t>
+  </si>
+  <si>
+    <t>S2关机</t>
+  </si>
+  <si>
+    <t>S3开机</t>
+  </si>
+  <si>
+    <t>S3关机</t>
+  </si>
+  <si>
+    <t>0x41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>重新阻尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久阻尼使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久阻尼禁止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至磁强计A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至磁强计B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>0x53</t>
+  </si>
+  <si>
+    <t>0x54</t>
+  </si>
+  <si>
+    <t>通信系统BPSK1200切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信系统BPSK9600切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信发射机关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD卡清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储指针还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星务计算机重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>0x1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制指令（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注入指令（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章进动控制系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴稳定控制律P注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴稳定控制律D注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻尼标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x62</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0x65</t>
+  </si>
+  <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x67</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>阻尼计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x55</t>
+  </si>
+  <si>
+    <t>0x56</t>
+  </si>
+  <si>
+    <t>0x57</t>
+  </si>
+  <si>
+    <t>0x58</t>
+  </si>
+  <si>
+    <t>0x59</t>
+  </si>
+  <si>
+    <t>器件健康状态变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥测存储指针变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS存储指针变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星上时间注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA55A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定会存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行指令说明（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行指令说明（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x27</t>
-  </si>
-  <si>
-    <t>0x28</t>
-  </si>
-  <si>
-    <t>0x29</t>
-  </si>
-  <si>
-    <t>0x32</t>
-  </si>
-  <si>
-    <t>0x33</t>
-  </si>
-  <si>
-    <t>0x34</t>
-  </si>
-  <si>
-    <t>0x35</t>
-  </si>
-  <si>
-    <t>磁棒开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁棒关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,388 +563,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPS_A开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_A关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_B开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_B关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留开关开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留开关关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动量轮A开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动量轮A关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动量轮B开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动量轮B关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳翻板开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳翻板关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1开机</t>
-  </si>
-  <si>
-    <t>S1关机</t>
-  </si>
-  <si>
-    <t>S2开机</t>
-  </si>
-  <si>
-    <t>S2关机</t>
-  </si>
-  <si>
-    <t>S3开机</t>
-  </si>
-  <si>
-    <t>S3关机</t>
-  </si>
-  <si>
-    <t>0x41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x42</t>
-  </si>
-  <si>
-    <t>0x43</t>
-  </si>
-  <si>
-    <t>0x44</t>
-  </si>
-  <si>
-    <t>重新阻尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久阻尼使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久阻尼禁止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至磁强计A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至磁强计B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x52</t>
-  </si>
-  <si>
-    <t>0x53</t>
-  </si>
-  <si>
-    <t>0x54</t>
-  </si>
-  <si>
-    <t>通信系统BPSK1200切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信系统BPSK9600切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CW开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信发射机关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD卡清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASH存储指针还原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星务计算机重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x18</t>
-  </si>
-  <si>
-    <t>0x19</t>
-  </si>
-  <si>
-    <t>0x1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制指令（暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注入指令（暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章进动控制系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三轴稳定控制律P注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三轴稳定控制律D注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻尼标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x62</t>
-  </si>
-  <si>
-    <t>0x63</t>
-  </si>
-  <si>
-    <t>0x64</t>
-  </si>
-  <si>
-    <t>0x65</t>
-  </si>
-  <si>
-    <t>0x66</t>
-  </si>
-  <si>
-    <t>0x67</t>
-  </si>
-  <si>
-    <t>0x68</t>
-  </si>
-  <si>
-    <t>0x69</t>
-  </si>
-  <si>
-    <t>阻尼计数器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量计数器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制计数器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x55</t>
-  </si>
-  <si>
-    <t>0x56</t>
-  </si>
-  <si>
-    <t>0x57</t>
-  </si>
-  <si>
-    <t>0x58</t>
-  </si>
-  <si>
-    <t>0x59</t>
-  </si>
-  <si>
-    <t>器件健康状态变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥测存储指针变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS存储指针变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星上时间注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA55A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于等于4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定会存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上行指令说明（暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行指令说明（暂定）</t>
+    <t>0x2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒1正向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒1反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒2正向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒2反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒3正向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒3反向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,17 +956,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J96"/>
+  <dimension ref="A4:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1065,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1085,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1105,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1140,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1158,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1176,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1194,10 +1235,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1217,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1237,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1257,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1277,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1297,7 +1338,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1317,7 +1358,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1337,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1354,10 +1395,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1374,10 +1415,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1394,10 +1435,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1414,10 +1455,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1434,10 +1475,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1454,10 +1495,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1474,10 +1515,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1494,10 +1535,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1514,10 +1555,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1537,7 +1578,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1554,10 +1595,10 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1577,7 +1618,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1597,7 +1638,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1617,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1637,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1654,10 +1695,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1674,87 +1715,95 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="H43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="H45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
@@ -1766,15 +1815,15 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="3" t="s">
         <v>9</v>
       </c>
@@ -1786,50 +1835,46 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1846,10 +1891,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1866,10 +1911,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1886,10 +1931,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1906,10 +1951,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1922,148 +1967,148 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>0</v>
+      <c r="A58">
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62">
-        <v>4</v>
+      <c r="A62" t="s">
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2077,13 +2122,13 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2097,13 +2142,13 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2117,13 +2162,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2137,13 +2182,13 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2157,13 +2202,13 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2177,13 +2222,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2197,13 +2242,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2217,13 +2262,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2237,82 +2282,90 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>17</v>
@@ -2326,7 +2379,15 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="C77" s="4"/>
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -2336,40 +2397,70 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
+    <row r="81" spans="1:10">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2380,240 +2471,387 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" t="s">
-        <v>138</v>
-      </c>
+      <c r="J84" s="3"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="D88" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="I90" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
+      <c r="I92" s="4"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H96"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+  <mergeCells count="183">
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="E90:H92"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
@@ -2638,134 +2876,29 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="E86:H88"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13631" windowHeight="4187"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13635" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="167">
   <si>
     <t>控制指令（暂定）</t>
   </si>
@@ -511,18 +511,20 @@
   </si>
   <si>
     <t>下行指令说明（暂定）</t>
+  </si>
+  <si>
+    <t>星务计算机恢复出厂设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACK帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -531,7 +533,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -553,29 +555,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,24 +579,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -902,6 +883,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -934,29 +916,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -965,18 +946,18 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -985,18 +966,18 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -1005,18 +986,18 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -1025,18 +1006,18 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -1045,18 +1026,18 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -1065,18 +1046,18 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -1085,18 +1066,18 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -1105,18 +1086,18 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -1125,18 +1106,18 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -1145,16 +1126,18 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -1163,16 +1146,16 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -1181,16 +1164,16 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
@@ -1199,16 +1182,16 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -1217,18 +1200,18 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
@@ -1237,18 +1220,18 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -1257,18 +1240,18 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
@@ -1277,18 +1260,18 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -1297,18 +1280,18 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -1317,18 +1300,18 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -1337,18 +1320,18 @@
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -1357,18 +1340,18 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -1377,18 +1360,18 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -1397,18 +1380,18 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -1417,18 +1400,18 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
@@ -1437,18 +1420,18 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
@@ -1457,18 +1440,18 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
@@ -1477,18 +1460,18 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
@@ -1497,18 +1480,18 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
@@ -1517,18 +1500,18 @@
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
@@ -1537,18 +1520,18 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
@@ -1557,18 +1540,18 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
@@ -1577,18 +1560,18 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
@@ -1597,18 +1580,18 @@
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
@@ -1617,18 +1600,18 @@
       <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
@@ -1637,18 +1620,18 @@
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
@@ -1657,18 +1640,18 @@
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
@@ -1677,18 +1660,18 @@
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
@@ -1697,18 +1680,18 @@
       <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
@@ -1717,18 +1700,18 @@
       <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
@@ -1737,18 +1720,18 @@
       <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
@@ -1757,18 +1740,18 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
@@ -1777,18 +1760,18 @@
       <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
@@ -1797,18 +1780,18 @@
       <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
@@ -1817,16 +1800,16 @@
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
@@ -1835,16 +1818,16 @@
       <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
@@ -1853,18 +1836,18 @@
       <c r="B50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
@@ -1873,18 +1856,18 @@
       <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
@@ -1893,18 +1876,18 @@
       <c r="B52" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
@@ -1913,18 +1896,18 @@
       <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
@@ -1933,18 +1916,18 @@
       <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
@@ -1953,18 +1936,18 @@
       <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
@@ -1973,18 +1956,18 @@
       <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
@@ -1993,18 +1976,18 @@
       <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
@@ -2013,18 +1996,18 @@
       <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
@@ -2033,18 +2016,18 @@
       <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
@@ -2053,52 +2036,52 @@
       <c r="B60" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="3:10">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
@@ -2107,18 +2090,18 @@
       <c r="B64" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
@@ -2127,18 +2110,18 @@
       <c r="B65" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
@@ -2147,18 +2130,18 @@
       <c r="B66" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
@@ -2167,18 +2150,18 @@
       <c r="B67" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
@@ -2187,18 +2170,18 @@
       <c r="B68" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
@@ -2207,18 +2190,18 @@
       <c r="B69" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
@@ -2227,18 +2210,18 @@
       <c r="B70" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
@@ -2247,18 +2230,18 @@
       <c r="B71" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
@@ -2267,18 +2250,18 @@
       <c r="B72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
@@ -2287,18 +2270,18 @@
       <c r="B73" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
@@ -2307,18 +2290,18 @@
       <c r="B74" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
@@ -2327,18 +2310,18 @@
       <c r="B75" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
@@ -2347,18 +2330,18 @@
       <c r="B76" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
@@ -2367,18 +2350,18 @@
       <c r="B77" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
@@ -2387,18 +2370,18 @@
       <c r="B78" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
@@ -2407,16 +2390,16 @@
       <c r="B79" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
@@ -2425,16 +2408,16 @@
       <c r="B80" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
@@ -2443,16 +2426,16 @@
       <c r="B81" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
@@ -2461,16 +2444,16 @@
       <c r="B82" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
@@ -2479,108 +2462,108 @@
       <c r="B83" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1" t="s">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
       <c r="D91" t="s">
         <v>153</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -2593,108 +2576,108 @@
       <c r="D92" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
       <c r="I92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="2" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="2"/>
+    <row r="94" spans="1:10">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1" t="s">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>155</v>
       </c>
@@ -2704,225 +2687,62 @@
       <c r="C100" t="s">
         <v>156</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
       <c r="I100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="2" t="s">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="2"/>
+    <row r="102" spans="1:10">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="E93:H95"/>
+    <mergeCell ref="D101:H103"/>
     <mergeCell ref="D98:H98"/>
     <mergeCell ref="D99:H99"/>
     <mergeCell ref="D100:H100"/>
@@ -2939,49 +2759,206 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="A97:J97"/>
     <mergeCell ref="I90:I91"/>
     <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="E93:H95"/>
-    <mergeCell ref="D101:H103"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
   <si>
     <t>控制指令（暂定）</t>
   </si>
@@ -108,9 +108,6 @@
     <t>0x0C</t>
   </si>
   <si>
-    <t>0x10</t>
-  </si>
-  <si>
     <t>磁棒开</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>USB关机</t>
   </si>
   <si>
-    <t>0x20</t>
-  </si>
-  <si>
     <t>S0开机</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>S3关机</t>
   </si>
   <si>
-    <t>0x28</t>
-  </si>
-  <si>
     <t>磁棒1正向</t>
   </si>
   <si>
@@ -451,15 +442,6 @@
   </si>
   <si>
     <t>0x66</t>
-  </si>
-  <si>
-    <t>0x67</t>
-  </si>
-  <si>
-    <t>0x68</t>
-  </si>
-  <si>
-    <t>0x69</t>
   </si>
   <si>
     <t>上行指令说明（暂定）</t>
@@ -518,6 +500,42 @@
   </si>
   <si>
     <t>ACK帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒1PWM注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒2PWM注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁棒3PWM注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1127,14 +1145,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1198,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1218,10 +1236,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1238,10 +1256,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1258,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1278,10 +1296,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1298,10 +1316,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1318,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1338,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1358,10 +1376,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1378,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1398,10 +1416,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1418,10 +1436,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1438,10 +1456,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1458,10 +1476,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1478,10 +1496,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1498,10 +1516,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1518,10 +1536,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1538,10 +1556,10 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1558,10 +1576,10 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1578,10 +1596,10 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1598,10 +1616,10 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1618,10 +1636,10 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1638,10 +1656,10 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1658,10 +1676,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1678,10 +1696,10 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1698,10 +1716,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1718,10 +1736,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1738,10 +1756,10 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1758,10 +1776,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1778,10 +1796,10 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1798,7 +1816,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>26</v>
@@ -1816,7 +1834,7 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>26</v>
@@ -1834,10 +1852,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1854,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1874,10 +1892,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1894,10 +1912,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1914,10 +1932,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1934,10 +1952,10 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1954,10 +1972,10 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1974,10 +1992,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1994,10 +2012,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2014,10 +2032,10 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2034,10 +2052,10 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2071,7 +2089,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2108,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2128,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2148,10 +2166,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2168,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2188,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2208,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2228,10 +2246,10 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2248,10 +2266,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2268,10 +2286,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2288,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2308,15 +2326,15 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
         <v>7</v>
       </c>
@@ -2328,15 +2346,15 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="3" t="s">
         <v>7</v>
       </c>
@@ -2348,15 +2366,15 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="3" t="s">
         <v>7</v>
       </c>
@@ -2368,10 +2386,10 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2388,16 +2406,18 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
@@ -2406,16 +2426,18 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
@@ -2424,16 +2446,18 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
@@ -2442,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>26</v>
@@ -2460,7 +2484,7 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>26</v>
@@ -2515,7 +2539,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2529,23 +2553,23 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2553,10 +2577,10 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -2565,46 +2589,46 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2631,7 +2655,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2645,23 +2669,23 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2669,7 +2693,7 @@
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -2679,31 +2703,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -2712,7 +2736,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -2739,6 +2763,175 @@
     </row>
   </sheetData>
   <mergeCells count="189">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I93:I95"/>
     <mergeCell ref="I98:I99"/>
     <mergeCell ref="I101:I103"/>
     <mergeCell ref="E93:H95"/>
@@ -2759,175 +2952,6 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="171">
   <si>
     <t>控制指令（暂定）</t>
   </si>
@@ -536,6 +536,10 @@
   </si>
   <si>
     <t>0x5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA55A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2612,7 +2616,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>154</v>
@@ -2763,175 +2767,6 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I93:I95"/>
     <mergeCell ref="I98:I99"/>
     <mergeCell ref="I101:I103"/>
     <mergeCell ref="E93:H95"/>
@@ -2952,6 +2787,175 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -492,9 +492,6 @@
     <t>异或校验</t>
   </si>
   <si>
-    <t>下行指令说明（暂定）</t>
-  </si>
-  <si>
     <t>星务计算机恢复出厂设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,7 +536,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xA55A</t>
+    <t>下行指令说明（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEB50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1149,14 +1150,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1220,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>30</v>
@@ -1540,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
@@ -1700,7 +1701,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
@@ -2330,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2350,10 +2351,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2370,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2659,7 +2660,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2767,6 +2768,175 @@
     </row>
   </sheetData>
   <mergeCells count="189">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I93:I95"/>
     <mergeCell ref="I98:I99"/>
     <mergeCell ref="I101:I103"/>
     <mergeCell ref="E93:H95"/>
@@ -2787,175 +2957,6 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
